--- a/Assets/Table/SpaceShip.xlsx
+++ b/Assets/Table/SpaceShip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruen\Desktop\UnimoParty\UnimoParty\Assets\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18FDB1E-766E-46E7-BD22-0848016E1DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4A441D-43BD-4DD5-8844-C5501113C0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="1776" windowWidth="19776" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="924" yWindow="2472" windowWidth="19776" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="아이템" sheetId="1" r:id="rId1"/>
@@ -100,52 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>회복 포션</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>얼음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>폭탄</t>
-    </r>
-  </si>
-  <si>
-    <t>바리케이드</t>
-  </si>
-  <si>
-    <t>유령</t>
-  </si>
-  <si>
-    <t>광산 폭탄</t>
-  </si>
-  <si>
-    <t>드론</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>index</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -164,6 +119,38 @@
   </si>
   <si>
     <t>ShipSpeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipModelName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>운석우주선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀벌우주선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>번개우주선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유령우주선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>광산우주선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>드론우주선</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -210,6 +197,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -261,6 +261,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -482,7 +491,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -490,26 +499,30 @@
     <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="11" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
       <c r="A1" s="6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -520,8 +533,8 @@
       <c r="A2" s="3">
         <v>500</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>8</v>
@@ -532,7 +545,9 @@
       <c r="E2" s="3">
         <v>500</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -543,8 +558,8 @@
       <c r="A3" s="3">
         <v>501</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>9</v>
@@ -555,7 +570,9 @@
       <c r="E3" s="3">
         <v>600</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -566,8 +583,8 @@
       <c r="A4" s="3">
         <v>502</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>10</v>
@@ -578,7 +595,9 @@
       <c r="E4" s="3">
         <v>700</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -589,8 +608,8 @@
       <c r="A5" s="3">
         <v>503</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>15</v>
@@ -601,7 +620,9 @@
       <c r="E5" s="3">
         <v>800</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -612,8 +633,8 @@
       <c r="A6" s="3">
         <v>504</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>20</v>
@@ -624,7 +645,9 @@
       <c r="E6" s="3">
         <v>900</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -635,8 +658,8 @@
       <c r="A7" s="3">
         <v>505</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>25</v>
@@ -647,7 +670,9 @@
       <c r="E7" s="3">
         <v>1000</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>

--- a/Assets/Table/SpaceShip.xlsx
+++ b/Assets/Table/SpaceShip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruen\Desktop\UnimoParty\UnimoParty\Assets\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4A441D-43BD-4DD5-8844-C5501113C0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F783D8-2208-4CB2-B054-6C861CEA7C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="924" yWindow="2472" windowWidth="19776" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32745" yWindow="2310" windowWidth="19770" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="아이템" sheetId="1" r:id="rId1"/>
@@ -103,62 +103,62 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>index</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ShipName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>InventoryCount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Cost</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ShipSpeed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ShipModelName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>운석우주선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>꿀벌우주선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>번개우주선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>유령우주선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>광산우주선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>드론우주선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ001_BeeTail_ST000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -169,13 +169,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -247,27 +240,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -488,199 +473,163 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15.6">
-      <c r="A2" s="3">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>500</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>500</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>501</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="C3" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
-        <v>500</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E3" s="1">
+        <v>600</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>502</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>700</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6">
-      <c r="A3" s="3">
-        <v>501</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>503</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>600</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
+      <c r="C5" s="1">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>800</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="3">
-        <v>502</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>504</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>700</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>900</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6">
-      <c r="A5" s="3">
-        <v>503</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>800</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6">
-      <c r="A6" s="3">
-        <v>504</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>505</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C7" s="1">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
-        <v>900</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6">
-      <c r="A7" s="3">
-        <v>505</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="E7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
